--- a/assets/okja/Data/Meat Consumption Analysis/Meat Consumption_v1.xlsx
+++ b/assets/okja/Data/Meat Consumption Analysis/Meat Consumption_v1.xlsx
@@ -157,13 +157,13 @@
     <t>2017 is an estimate by USDA.</t>
   </si>
   <si>
-    <t>2018 is a forecast.</t>
-  </si>
-  <si>
     <t>[4]</t>
   </si>
   <si>
     <t>Meat Consumption Analysis</t>
+  </si>
+  <si>
+    <t>2018 is a forecast by the National Chicken Council.</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -503,16 +503,16 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,11 +584,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:defRPr>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1000" b="1" i="1">
@@ -631,7 +627,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0521082907090471E-2"/>
+          <c:y val="9.6115381704561423E-2"/>
+          <c:w val="0.90931387641044126"/>
+          <c:h val="0.64405605257249987"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -640,6 +646,368 @@
           <c:order val="0"/>
           <c:tx>
             <c:v>Red Meat</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meat Consumption'!$B$6:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meat Consumption'!$E$6:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>133.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>125.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>119.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>117.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>117.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>118.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>107.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>104.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>106.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>109.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Poultry</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -826,368 +1194,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Meat Consumption'!$E$6:$E$59</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>133.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>135.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>144.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>142.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>145.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>149.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>144.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>133.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>136.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>144.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>142.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>134.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>136.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>134.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>128.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>132.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>133.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>125.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>127.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>119.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>118.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>120.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>118.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>117.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>115.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>119.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>121.7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>120.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>117.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>120.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>118.1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>118.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>116.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>116.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>116.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>112.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>111.7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>107.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>103.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>103.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>103.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>104.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>106.9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>109.4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Poultry</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Meat Consumption'!$B$6:$B$59</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'Meat Consumption'!$J$6:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -1368,11 +1374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="416415952"/>
-        <c:axId val="211410192"/>
+        <c:axId val="435956600"/>
+        <c:axId val="416419480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416415952"/>
+        <c:axId val="435956600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211410192"/>
+        <c:crossAx val="416419480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,9 +1427,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211410192"/>
+        <c:axId val="416419480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1519,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416415952"/>
+        <c:crossAx val="435956600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1540,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.403575481712665"/>
+          <c:y val="0.77613727207337169"/>
+          <c:w val="0.19284892126481992"/>
+          <c:h val="3.2035810659121422E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1588,6 +1604,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2185,6 +2202,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01395</cdr:x>
+      <cdr:y>0.80385</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98466</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="120952" y="5055811"/>
+          <a:ext cx="8418286" cy="1233713"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1"/>
+            <a:t>Notes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>: [1] "Red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Meat" includes beef, pork, veal, and mutton/lamb, but excludes edible offals.  [2] "Poultry" is chicken and turkey.  [3] 2017 is an estimate by USDA.  [4] 2018 is a forecast by the National Chicken Council.  [5] All poultry and livestock products are on a retail weight basis, except "other chicken" and "turkey" which are reported by USDA on a carcass-weight basis.</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1"/>
+            <a:t>Source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> National Chicken Council (originally from USDA), "Per Capita Consumption of Poultry and Livestock, 1965 to Estimated 2018, in Pounds, last updated August 29, 2017, last accessed December 28, 2017, available at &lt;http://www.nationalchickencouncil.org/about-the-industry/statistics/per-capita-consumption-of-poultry-and-livestock-1965-to-estimated-2012-in-pounds/&gt;.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2472,7 +2555,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -2508,10 +2591,10 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E59"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4553,12 +4636,12 @@
         <v>27</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>30</v>
